--- a/reviews.xlsx
+++ b/reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeffrey Hamlin\Documents\UiPath\Hack_a_bot_SentimentAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C98C35-977A-4E6A-926B-71D244844277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E42413-1CB7-4592-BA42-E5852EBFC4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="1" xr2:uid="{B7B248A5-468E-405F-A29A-5D12BDE9EA44}"/>
   </x:bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <x:si>
     <x:t>S.NO</x:t>
   </x:si>
@@ -252,7 +252,7 @@
     <x:t>Very Positive</x:t>
   </x:si>
   <x:si>
-    <x:t>Thank you for your positive review! We’re thrilled to know that you had a great experience with us.</x:t>
+    <x:t>Vielen Dank für Ihre positive Bewertung!</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Disappointed with the product quality. </x:t>
@@ -261,7 +261,7 @@
     <x:t>Negative</x:t>
   </x:si>
   <x:si>
-    <x:t>We’re sorry to hear that the product didn’t meet your expectations.</x:t>
+    <x:t>We’re sorry to hear that your experience didn’t meet your expectations.</x:t>
   </x:si>
   <x:si>
     <x:t>Das Einkaufserlebnis war durchschnittlich.</x:t>
@@ -270,37 +270,88 @@
     <x:t>Very Negative</x:t>
   </x:si>
   <x:si>
+    <x:t>Wir entschuldigen uns für das durch die Qualität des Produkts verursachte Unbehagen.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The item arrived damaged and seems to be of poor quality.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The shopping experience was average.</x:t>
+  </x:si>
+  <x:si>
     <x:t>We apologize for the discomfort caused by the product's quality.</x:t>
   </x:si>
   <x:si>
-    <x:t>The item arrived damaged and seems to be of poor quality.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The shopping experience was average.</x:t>
+    <x:t xml:space="preserve">It’s wonderful to hear that you’re satisfied with our service. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Es hat meine Erwartungen nicht erfüllt und wirkt billig verarbeitet.</x:t>
   </x:si>
   <x:si>
     <x:t>Neutral</x:t>
   </x:si>
   <x:si>
+    <x:t>Wir sind froh, dass Ihre Erfahrung okay war.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The item arrived damaged and its not what I was hoping for.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">The team was incredibly helpful and responsive, making my shopping experience smooth </x:t>
+  </x:si>
+  <x:si>
+    <x:t>vvv@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Der Artikel ist seinen Preis wert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wir freuen uns über Ihr ehrliches Feedback.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Es ist schön zu hören, dass Sie mit unserem Service zufrieden sind.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>We’re committed to learning from this experience and ensuring it doesn’t happen again.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wir entschuldigen uns aufrichtig für die Probleme, die durch die Produktqualität verursacht wurden.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>We sincerely apologize for the trouble caused by the product quality.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Thank you for your positive review! </x:t>
+  </x:si>
+  <x:si>
     <x:t>Positive</x:t>
   </x:si>
   <x:si>
-    <x:t>We apologize for the inconvenience caused by the product quality.</x:t>
-  </x:si>
-  <x:si>
     <x:t>We regret any inconvenience caused by the quality of the product.</x:t>
   </x:si>
   <x:si>
-    <x:t>If there’s anything specific you think we could improve, please let us know!</x:t>
+    <x:t>We are sorry for any issues you experienced due to the product quality.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Thank you for sharing your feedback with us. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thank you so much for your kind words!</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">We’re so glad you enjoyed your experience. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">We’re glad to hear your experience was okay. </x:t>
   </x:si>
   <x:si>
     <x:t>Thank you for taking the time to share your experience</x:t>
   </x:si>
   <x:si>
-    <x:t>We are sorry for any issues you experienced due to the product quality.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>We sincerely apologize for the trouble caused by the product quality.</x:t>
+    <x:t>We appreciate your honest feedback.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thank you so much for your positive feedback!</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -310,7 +361,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="5" x14ac:knownFonts="1">
+  <x:fonts count="4" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -335,17 +386,11 @@
       <x:scheme val="minor"/>
     </x:font>
     <x:font>
-      <x:sz val="8"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Courier New"/>
-      <x:family val="3"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
+      <x:scheme val="minor"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">
@@ -705,7 +750,7 @@
   <x:dimension ref="A1:D61"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="C13" sqref="C13"/>
+      <x:selection activeCell="B13" sqref="B13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1388,10 +1433,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E6"/>
+  <x:dimension ref="A1:E51"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <x:selection activeCell="D8" sqref="D8"/>
+    <x:sheetView tabSelected="1" topLeftCell="A11" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <x:selection activeCell="F28" sqref="F28"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1400,10 +1445,10 @@
     <x:col min="2" max="2" width="15.664062" style="0" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="104.664062" style="0" bestFit="1" customWidth="1"/>
     <x:col min="4" max="4" width="17.664062" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="26" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="72.21875" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1420,7 +1465,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <x:c r="A2" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -1437,7 +1482,7 @@
         <x:v>71</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <x:c r="A3" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
@@ -1454,7 +1499,7 @@
         <x:v>74</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <x:c r="A4" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
@@ -1471,7 +1516,7 @@
         <x:v>77</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <x:c r="A5" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
@@ -1488,7 +1533,7 @@
         <x:v>74</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <x:c r="A6" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
@@ -1502,16 +1547,826 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A8" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A9" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A10" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A11" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A12" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A13" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B13" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A14" s="0" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B14" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A15" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B15" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A16" s="0" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B16" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A17" s="0" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B17" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A18" s="0" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B18" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A19" s="0" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B19" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A20" s="0" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B20" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A21" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B21" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A22" s="0" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B22" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A23" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B23" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A24" s="0" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B24" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
         <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A25" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B25" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A26" s="0" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B26" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A27" s="0" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B27" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A28" s="0" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B28" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A29" s="0" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B29" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A30" s="0" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B30" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A31" s="0" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B31" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A32" s="0" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B32" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A33" s="0" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B33" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A34" s="0" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B34" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A35" s="0" t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B35" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A36" s="0" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B36" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A37" s="0" t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B37" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A38" s="0" t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B38" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A39" s="0" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B39" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A40" s="0" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B40" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A41" s="0" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B41" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A42" s="0" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B42" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A43" s="0" t="n">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B43" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A44" s="0" t="n">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B44" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A45" s="0" t="n">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B45" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A46" s="0" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B46" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A47" s="0" t="n">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B47" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A48" s="0" t="n">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B48" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A49" s="0" t="n">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B49" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A50" s="0" t="n">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B50" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A51" s="0" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B51" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>84</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="B2" r:id="rId192"/>
-    <x:hyperlink ref="B3" r:id="rId193"/>
-    <x:hyperlink ref="B4" r:id="rId194"/>
-    <x:hyperlink ref="B5" r:id="rId195"/>
-    <x:hyperlink ref="B6" r:id="rId196"/>
+    <x:hyperlink ref="B2" r:id="rId187"/>
+    <x:hyperlink ref="B3" r:id="rId188"/>
+    <x:hyperlink ref="B4" r:id="rId189"/>
+    <x:hyperlink ref="B5" r:id="rId190"/>
+    <x:hyperlink ref="B6" r:id="rId191"/>
+    <x:hyperlink ref="B7" r:id="rId192"/>
+    <x:hyperlink ref="B8" r:id="rId193"/>
+    <x:hyperlink ref="B9" r:id="rId194"/>
+    <x:hyperlink ref="B10" r:id="rId195"/>
+    <x:hyperlink ref="B11" r:id="rId196"/>
+    <x:hyperlink ref="B12" r:id="rId197"/>
+    <x:hyperlink ref="B13" r:id="rId198"/>
+    <x:hyperlink ref="B14" r:id="rId199"/>
+    <x:hyperlink ref="B15" r:id="rId200"/>
+    <x:hyperlink ref="B16" r:id="rId201"/>
+    <x:hyperlink ref="B17" r:id="rId202"/>
+    <x:hyperlink ref="B18" r:id="rId203"/>
+    <x:hyperlink ref="B19" r:id="rId204"/>
+    <x:hyperlink ref="B20" r:id="rId205"/>
+    <x:hyperlink ref="B21" r:id="rId206"/>
+    <x:hyperlink ref="B22" r:id="rId207"/>
+    <x:hyperlink ref="B42" r:id="rId208"/>
+    <x:hyperlink ref="B23" r:id="rId209"/>
+    <x:hyperlink ref="B43" r:id="rId210"/>
+    <x:hyperlink ref="B24" r:id="rId211"/>
+    <x:hyperlink ref="B44" r:id="rId212"/>
+    <x:hyperlink ref="B25" r:id="rId213"/>
+    <x:hyperlink ref="B45" r:id="rId214"/>
+    <x:hyperlink ref="B26" r:id="rId215"/>
+    <x:hyperlink ref="B46" r:id="rId216"/>
+    <x:hyperlink ref="B27" r:id="rId217"/>
+    <x:hyperlink ref="B47" r:id="rId218"/>
+    <x:hyperlink ref="B28" r:id="rId219"/>
+    <x:hyperlink ref="B48" r:id="rId220"/>
+    <x:hyperlink ref="B29" r:id="rId221"/>
+    <x:hyperlink ref="B49" r:id="rId222"/>
+    <x:hyperlink ref="B30" r:id="rId223"/>
+    <x:hyperlink ref="B50" r:id="rId224"/>
+    <x:hyperlink ref="B31" r:id="rId225"/>
+    <x:hyperlink ref="B51" r:id="rId226"/>
+    <x:hyperlink ref="B32" r:id="rId227"/>
+    <x:hyperlink ref="B33" r:id="rId228"/>
+    <x:hyperlink ref="B34" r:id="rId229"/>
+    <x:hyperlink ref="B35" r:id="rId230"/>
+    <x:hyperlink ref="B36" r:id="rId281"/>
+    <x:hyperlink ref="B37" r:id="rId282"/>
+    <x:hyperlink ref="B38" r:id="rId283"/>
+    <x:hyperlink ref="B39" r:id="rId284"/>
+    <x:hyperlink ref="B40" r:id="rId285"/>
+    <x:hyperlink ref="B41" r:id="rId286"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1529,17 +2384,20 @@
   <x:dimension ref="A1:E4"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="D1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <x:selection activeCell="D14" sqref="D14"/>
+      <x:selection activeCell="E4" sqref="E4"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultColWidth="119.699375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
-    <x:col min="1" max="2" width="61.664062" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="69.886719" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="5" width="101" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="59" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="75.21875" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="116.554688" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="96.777344" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="101" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="8.886719" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <x:c r="A1" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
@@ -1547,52 +2405,64 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D1" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E1" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A2" s="3" t="s">
-        <x:v>82</x:v>
+    <x:row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C2" s="3" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D2" s="3" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="E2" s="3" t="s">
-        <x:v>85</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <x:c r="A3" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B3" s="3" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D3" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E3" s="3" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <x:c r="A4" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>81</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
